--- a/SQLI/SQLi4.xlsx
+++ b/SQLI/SQLi4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saahil\Documents\SIT\PBL-2\Datasets\SQLI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B0FB9A5-8AD7-4E34-9CC7-978F3EB2EE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A368D5F-8871-49E3-9532-65B25FC793AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{3CBC7A75-FD21-47DD-9064-B6C3AE6AE941}"/>
   </bookViews>
@@ -12007,14 +12007,14 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12332,7 +12332,7 @@
   <dimension ref="A1:B4201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B4201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
